--- a/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
+++ b/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
@@ -215,7 +215,7 @@
     <t xml:space="preserve">OSC, 1MHz, CMOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Maxim</t>
+    <t xml:space="preserve">Analog Devices</t>
   </si>
   <si>
     <t xml:space="preserve">MAX7375AXR105+T</t>
@@ -852,7 +852,7 @@
         <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>16</v>

--- a/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
+++ b/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t xml:space="preserve">Line #</t>
   </si>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">553-2394-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">J1, J2, J3, J4, J5</t>
+    <t xml:space="preserve">J1, J2, J3, J4, J5, J6</t>
   </si>
   <si>
     <t xml:space="preserve">Header 1x2 THT</t>
   </si>
   <si>
-    <t xml:space="preserve">M1, M2</t>
+    <t xml:space="preserve">M1</t>
   </si>
   <si>
     <t xml:space="preserve">Mounting Hole</t>
@@ -162,21 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">RNCP0805FTD1K00CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1, TP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Point Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keystone Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36-1033-ND</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -443,7 +428,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -607,7 +592,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -626,7 +611,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -744,7 +729,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>48</v>
@@ -753,7 +738,7 @@
         <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
@@ -762,10 +747,10 @@
         <v>50</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,7 +762,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>53</v>
@@ -798,7 +783,7 @@
         <v>0.6</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +795,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>58</v>
@@ -827,12 +812,8 @@
       <c r="I12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
@@ -846,53 +827,24 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="4" t="n">
+      <c r="J13" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K13" s="4" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
+++ b/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
@@ -647,12 +647,8 @@
       <c r="I7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>

--- a/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
+++ b/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t xml:space="preserve">Line #</t>
   </si>
@@ -59,10 +59,67 @@
     <t xml:space="preserve">Supplier Subtotal 1</t>
   </si>
   <si>
+    <t xml:space="preserve">22AWG Twisted Pair ETFE (Spec 55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3160683002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digi-Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55A0121-22-0/9-DS-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buck Regulator Positive Output Step-Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI National Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM3495MTC/NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM3495MTC/NOPB-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic Output Optoisolator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay Lite-On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6N137S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-1793-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmitt Trigger Inverter, TTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74VHC1GT14DTT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M74VHC1GT14DTT1GOSCT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1, C3</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP, TANT, 10uF ±10%, 35V, 2917</t>
+    <t xml:space="preserve">CAP, TANT, 10uF ±10%, 35V, 2312</t>
   </si>
   <si>
     <t xml:space="preserve">Kyocera AVX</t>
@@ -71,12 +128,6 @@
     <t xml:space="preserve">TRJC106K035R0600</t>
   </si>
   <si>
-    <t xml:space="preserve">Volume Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digi-Key</t>
-  </si>
-  <si>
     <t xml:space="preserve">478-7582-1-ND</t>
   </si>
   <si>
@@ -113,18 +164,6 @@
     <t xml:space="preserve">553-2394-1-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">J1, J2, J3, J4, J5, J6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header 1x2 THT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mounting Hole</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
@@ -155,13 +194,13 @@
     <t xml:space="preserve">R6, R7, R8, R9, R10</t>
   </si>
   <si>
-    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 250mW, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00CT-ND</t>
+    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 125mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT1K00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT1K00CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -170,9 +209,6 @@
     <t xml:space="preserve">Low-Dropout Regulator, 5V, 1A</t>
   </si>
   <si>
-    <t xml:space="preserve">ON Semiconductor</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCP1117IST50T3G</t>
   </si>
   <si>
@@ -207,18 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAX7375AXR105+TCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schmitt Trigger Inverter, TTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M74VHC1GT14DTT1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M74VHC1GT14DTT1GOSCT-ND</t>
   </si>
 </sst>
 </file>
@@ -343,7 +367,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,7 +452,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -438,9 +462,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.81"/>
@@ -486,363 +510,422 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>1.26</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.88</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="J3" s="4" t="n">
-        <v>0.1</v>
+        <v>4.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.6</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.81</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.1</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="J5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.027</v>
+        <v>0.1</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.6</v>
+        <v>0.027</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>0.6</v>
+        <v>0.027</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>1.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>0.44</v>
-      </c>
+      <c r="E14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A:K"/>

--- a/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
+++ b/altium/CLK_DISTRO/bom/CLK_DISTRO_BOM.xlsx
@@ -101,148 +101,148 @@
     <t xml:space="preserve">160-1793-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">C1, C4, C5, C6, C7, C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP, CER, 100nF ±10%, 100V, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wurth Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">885012207128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732-12244-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP, TANT, 10uF ±10%, 35V, 2312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyocera AVX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRJC106K035R0600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">478-7582-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEAD, 330Ω/100MHz, 1.5A, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-0805PFB331ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553-2394-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, JUMP, 0Ω, 2A, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackpole Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805ZT0R00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805ZT0R00CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2, R3, R4, R5, R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 125mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT1K00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6, R7, R8, R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 270Ω ±1.00%, 125mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT270R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMCF0805FT270RCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-Dropout Regulator, 5V, 1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON Semiconductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCP1117IST50T3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488-NCP1117IST50T3GCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2, U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Type Flip-Flop, TTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexperia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74LVC1G74DP-Q100H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1727-7463-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSC, 1MHz, CMOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX7375AXR105+T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX7375AXR105+TCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
   </si>
   <si>
     <t xml:space="preserve">Schmitt Trigger Inverter, TTL</t>
   </si>
   <si>
-    <t xml:space="preserve">ON Semiconductor</t>
-  </si>
-  <si>
     <t xml:space="preserve">M74VHC1GT14DTT1G</t>
   </si>
   <si>
     <t xml:space="preserve">M74VHC1GT14DTT1GOSCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1, C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP, TANT, 10uF ±10%, 35V, 2312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyocera AVX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRJC106K035R0600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">478-7582-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2, C4, C5, C6, C7, C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP, CER, 100nF ±10%, 100V, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wurth Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">885012207128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732-12244-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEAD, 330Ω/100MHz, 1.5A, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-0805PFB331ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553-2394-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES, JUMP, 0Ω, 2A, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stackpole Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805ZT0R00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805ZT0R00CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2, R3, R4, R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES, 270Ω ±1.00%, 125mW, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805FT270R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805FT270RCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6, R7, R8, R9, R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 125mW, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805FT1K00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RMCF0805FT1K00CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low-Dropout Regulator, 5V, 1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCP1117IST50T3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">488-NCP1117IST50T3GCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2, U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Type Flip-Flop, TTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nexperia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74LVC1G74DP-Q100H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1727-7463-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSC, 1MHz, CMOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX7375AXR105+T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX7375AXR105+TCT-ND</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>27</v>
@@ -619,37 +619,37 @@
         <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>14</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>0.44</v>
@@ -670,22 +670,22 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
@@ -697,7 +697,7 @@
         <v>0.1</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,13 +742,13 @@
         <v>47</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>14</v>
@@ -757,31 +757,27 @@
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>14</v>
@@ -790,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>0.027</v>
@@ -802,22 +798,22 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>15</v>
@@ -826,10 +822,10 @@
         <v>58</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>0.027</v>
+        <v>0.6</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,82 +837,78 @@
         <v>60</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="4" t="n">
         <v>0.6</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>1.2</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>15</v>
@@ -924,8 +916,12 @@
       <c r="I14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="J14" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>0.44</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A:K"/>
